--- a/Python Scripts/PWM LED/Sincronization.xlsx
+++ b/Python Scripts/PWM LED/Sincronization.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Shutter speed (us)</t>
   </si>
@@ -40,19 +40,13 @@
     <t xml:space="preserve">Magnifying </t>
   </si>
   <si>
-    <t xml:space="preserve">Resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1x ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720x480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good photos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not as clear as the previous one</t>
+    <t xml:space="preserve">Filter added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3 – 160/0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
 </sst>
 </file>
@@ -154,20 +148,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.67"/>
@@ -197,100 +191,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.27</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
